--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/32_Eskişehir_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/32_Eskişehir_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19706F2C-9509-49C5-8A24-2335AE47E62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51F2196F-9476-4680-9342-FD409D4CF41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{938D8E27-54D6-41B8-9345-81103CCF5A67}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{99423446-4039-4A65-BC7E-F55B3C4B6483}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -938,14 +938,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C6418BA4-B90D-4A46-B212-D31D867F6F53}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{0E5267AF-DCBB-4C1E-B4BD-C02A653A85FC}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{187A0591-4BD4-4D40-8301-62BFA1963FC6}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{F618B5DF-7123-48ED-B424-C109B78E44BD}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{416CE2CF-2FB5-472A-B37D-3BD1201306D2}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{2A4E11FD-FCC6-448C-AD34-DC1A967D2A77}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{DE939615-A99A-4121-BDE5-4AE7100C76BB}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{83BA650C-AF60-4F47-8C05-DF98F3DB4A1D}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{3D9AE606-7E48-47FB-9178-B67E843DFC55}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3A166BD4-6BB1-4E22-9A95-633FA119AC9B}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{CB0AC892-1DEE-4F32-90F3-CDB0660AAA19}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{F927B77B-3920-41ED-8CB9-9E031FFD6EBA}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{BA3D42DC-36E2-4C99-9378-06BD782711FF}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{C4F985EF-8E7F-4D79-B558-FBA13DB9A45B}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{3CB02E4C-F2D6-4F28-AB23-35FFF54D96A7}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{F8B164DC-F0A4-444A-9533-7413B3F1331F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20D31C6-9024-44B4-B366-C6FE6BDF9936}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9F0E8D-53BE-4994-9513-C52C0862FC33}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2589,18 +2589,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6323C095-F734-4FC7-BC5E-DBFFB43B0190}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{952F07B0-D1BA-408E-A565-4B691B38A10F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8B1D002F-C7CD-43B3-B454-193EB50D4AFB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D38A0CC0-1FAA-44B3-BC16-C3B249B490D9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB6BBA71-0885-4D83-AB02-21921803FA52}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3F7D44B4-7003-4FF1-876E-A1A73B6A38D6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3B2D63A5-1138-4AC6-9F44-AD99E0FB14A5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36C486D7-5940-4CC4-A1A9-284FBE288C35}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D89C4587-5BB3-4289-A99B-6C6B9A95B542}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D7B3609A-AB63-4241-874E-4437E1985D2B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CFAB356D-BA90-4563-9D86-89BD576195A4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CF993235-8AA6-4179-8399-68F697CACB8F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40833E51-6A71-411C-8562-8DA186D2B0B6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0E68022A-2526-41E8-BC0B-72029E4FE5B7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D0296EDD-FA72-4D91-A283-667CBB0F16A0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0BB2E8EB-3B41-4701-A28E-B4145F5DBD10}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{860CE32C-E21A-4121-AA7A-873C1A639F29}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C0BECE67-6C4F-4915-8129-CA94BC0F9A9B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F9D28022-F75C-40DE-AAE0-6929C8E82F3B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3D907DAB-055A-4F1B-9060-63E567A25E39}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{197433E3-FD8F-4DAF-B29F-FE2156D1B16B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A599E109-E20C-4DD3-9608-E5F03A8C4C8B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{63BF1E4C-B9C8-405E-899D-DDD236298BD8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C3B4AE3C-B510-43DB-9DDF-EE171B2EDBB1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2613,7 +2613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A1A5F-B9BE-43FE-8C61-27092E09C59D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9D99C3-E56A-4C26-8823-0A95EA64260C}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3863,18 +3863,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0DFE128C-994D-416C-B833-DE3483BF5D24}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{615DD595-B733-49F6-8ABC-B5826A88FC5E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{53B24173-A2DB-46B6-96AC-64CC04670C14}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E5D8D0C-0174-4440-A898-C7354C993E31}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC295219-2011-4BAF-A88A-1AD0E95AB84D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C5C44461-83D6-4582-B6F5-92B5A6A0BADF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{299F23CD-66AD-4B0A-83BD-17DA050ECD64}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{22AAB8D5-8BA4-47CC-AA95-EACD24E014EA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{95F58E45-CE21-42C0-A7E9-57F81413FBF7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1F967CB2-0404-459E-A708-B2F6967616AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D84CF3C-92AE-498E-86D6-CF596AC7F8FC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E88144D3-ED91-4B25-9AA9-10CD0983669A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5090CE68-B1F3-43BF-9605-0A9268180140}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5A805C2D-0059-42AE-B7D8-CA8BB5E9ADA9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D4FAE687-0576-4DF8-9D53-8B0C08981AEB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9D57326A-2BD3-4C3F-94DC-15BDF41074A3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{14B82DC1-13EC-4625-BA90-583973B52EA2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BCE0461F-D68C-42D8-A5BB-80156C78D300}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4BD93AA1-AA9D-4D5F-8808-D3C9759EBB1A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FFAF3DD6-4EAA-43E4-8586-50F56D7BF078}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{10FD822E-FCF6-4CCE-8BB7-AC2151D4B0C9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BCC091AA-4042-4670-A32B-51169A3AD806}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D916E01C-83D6-49F5-AD3B-C9063233EB00}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{437B48AE-DACC-412C-8B15-7B90EE357075}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3887,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A4B55E-ECA8-4EA0-93CF-A7CD84BBF8F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEA85A0-77B2-4123-8316-D9160E1FA9CC}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5137,18 +5137,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1793B35C-ECD9-41D2-8ACD-EE83242EDF00}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C0BF1CFC-B8D1-4AF4-8441-CC3DCF78F460}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{83E963D1-6C22-4A63-A9CA-FE4C5DCF69A3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E854D26D-7758-4D00-A2B3-4D9C2B803C84}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{05A802C4-C0DE-4116-BEC3-F24AA75AAE74}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C31FEF0B-4F29-4A19-A7D7-C27E0A1BAF36}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14A65B69-8525-4FEC-A3D9-DB598F582CBD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5530A0FE-F6A1-445A-A7FB-0139B07BEB90}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D239208-7BE8-49E5-A725-4F3440D45B57}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{174677AC-14A1-4C7F-B319-3B16D4BADBE4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F1C2532A-8570-4A8C-9B14-7C5D975EE6E1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DDC1920C-7768-4BAD-BA56-E057F0C2351C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9F91901-C500-4A93-9013-4E237641F008}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{600B52E9-D6F8-4209-9C99-258E8FD1A8EF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{69482ADF-2104-4176-B5B0-A189C10DAFFE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5BCF338-0985-46A7-974C-9C4B3D873A50}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A53E1CAF-4ED9-48C0-BFDF-EF27299BE660}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EA715EC0-C88B-4C9F-92FC-FEB2D554AEC1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5DF0C9F6-1B50-4ACD-99B2-2BE86B1FBBC3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0C387709-E996-4C54-8C25-C737DA93133C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A3CC9211-2887-427C-9A84-74220DB25AD6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{91AE5AF7-6497-4C73-BEAC-DEA4B9856696}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F18D207B-2C5B-4573-B2AB-CA0A55EC3725}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{46A0E722-9924-462E-A409-46A2DBA981EA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5161,7 +5161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A1890E-FBA3-4D0E-8D6C-842AFFDF18C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7454B2-11CB-4D04-87FF-02FC3B9AF78F}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6407,18 +6407,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D83B8BA0-7F60-45B0-A263-77860AC177A3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C0D37138-F204-43CA-B001-C5C9CA403CC2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FA45C402-08B6-47FF-9DF7-27D1B2393425}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF167AB5-CB0A-4E53-8E88-1AC5E4FAA322}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6353FA60-7E01-42E2-BEE2-D7A273D16B90}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{116D31F0-04DC-4E26-94B7-362E45C84A9B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A2087D4-0AE6-407E-A85F-C2B25B75E638}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{278C9CB2-99C8-417C-8858-F52DC82EC9AD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6F211226-8EA6-4E84-AAFC-4CE5DDD3127E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1F324972-E1A2-4C37-A0BF-2C01649258D4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DCA819DC-C789-4BC4-9453-D07A635ECD1E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BFB28562-3D3C-4C73-85B3-0825B0E5A55F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44AFC5B1-1C9F-470C-AC1A-26A8EF0B024F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E7E4BF6F-ED13-4667-9FCA-EAFF89CEB849}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{04E2A79B-8269-49B1-AE70-FD972E2F9E4C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21BF891E-BDC5-4AE6-8114-75CFEC239FB3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F9BBB58C-91D6-489D-99D5-CAA100127306}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4B62C28E-52AF-432E-91DF-899B508E701F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BADC47FA-D6B8-44D9-9247-DA2148438894}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1947D97B-2312-4A64-B8EE-5E1799AD5FF9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8838B442-1260-4593-9491-F64A5F64A19D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C4DF3EF6-4CE7-47EF-8E07-D3946529B6CE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC945BF3-B58E-49EE-8616-48561F43BBC1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{770EA437-A86F-4E96-B1BF-32CA48E4301F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6431,7 +6431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B54A71-23DD-43ED-B682-875B8932712A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED39A148-6E38-460C-97F9-6E6C4058584E}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7705,18 +7705,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C735C74F-7DA9-400C-8A06-43D11B8862D3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C361E2F7-2432-42CD-A4CC-C12E5082C997}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{673DEBC9-C8A8-4CE5-9346-557A9C8B8E33}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD02F2D5-796D-4590-9D3E-71514D566248}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F07B556F-16E5-4642-A2EF-6771DC00E514}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{396E0F53-8D1D-44C8-A106-EDD1DA78BE85}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2AAFB5E2-372A-447A-801C-5BCF98E8BECF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{12589383-769E-4360-80DC-5BBF0190B771}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{35BFB5FD-50BA-4597-B4A3-66CEA1683036}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{44902DE6-497E-430C-87EB-9B5F7E6B4E25}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8DDC8E94-5FC3-4A52-AF67-EF09C767240B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D6001348-BE51-4158-9542-694DA40DBA9B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A1259256-CD1B-4664-9230-1C32140DC678}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6FF8FC41-27FF-4F4B-81E2-0E66874BCD51}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0330DC18-27C3-40D4-8184-4A56FDBDBF30}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B33D96BA-EF8A-422F-A1CC-C7198C2DCA52}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{508FB538-EE61-4A36-8F2D-0C5842C73ECC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BC17D408-305D-4AC1-A43B-57565FB33A03}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8BA8A814-DE08-4DB5-8278-5CD3BD60E396}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C2CF274-584E-4C8A-8515-3D71F4312506}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F0B509B5-C11F-44FE-AE22-60605B46BB41}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{785D6199-51C7-4CD5-AC5B-A0DB18589829}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3DE110FF-E230-435F-B96D-CC42EBB15B29}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7B97625F-8017-41F5-ADA5-C2CA5062262C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256D096B-FCD0-4017-AFF5-2827B8F00C15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6B6167-D8DB-4D15-992D-257672F365EC}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8999,18 +8999,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A893AB80-9FCA-49DD-BA9E-AAAD7BE6CA88}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8DAA4351-7D28-422A-ABAF-3DC0B9F02CC8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{366947BA-C14F-410B-B8D9-4451810F897D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1201005D-4345-46BA-B47D-64ECE2392E73}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1EC719EA-DCA7-4B4A-9B56-370C2345872D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA587F14-6A2E-4739-BF3B-C6103237B955}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F0981670-25D1-4BF3-8C7B-061713595470}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4783077A-EE08-490E-B547-9E21E269B1FF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A534FA9C-2EE6-435B-B9CD-4B958F7D33E1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{89438337-70F4-4D97-9E9C-6C4422AF3DE1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3B5F3CE2-1D15-49B3-A39B-432E085853A0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{07343ADB-D203-44A6-BDEB-5C569A02BB8D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{501DE272-9BCA-4676-8269-C0DBE09749C6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0FAFEBCC-65F3-49AD-ACE0-E8600C9DC18D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{415EA696-D9A3-4C0E-ACAB-1B37636ABE59}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8482158C-AF50-49CB-84BB-0AB650F9CE9A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F7565996-9CF7-4408-918E-E44F778ABAFD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{959E20C9-BD4A-427C-B887-F48959851453}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{42E1CD70-424A-496F-8A8D-FBE82DFCC335}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C909516-68B0-4412-AC3F-2FF4251665F3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EA3F9892-29FD-4D38-8597-1E3E37D8A120}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F056D088-FE2D-4F04-AD1B-4DA173FD0AEB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B06AB019-AB07-465E-B48F-92ACBF799EAE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E84F84E-4B96-4422-8275-145899A894F4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9023,7 +9023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EBE13F-63B4-4B10-8466-AD250DA18929}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EBF644-1469-410D-843A-0460194FB576}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10289,18 +10289,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ADE5DA13-7E89-4A34-A80F-05B69BDB3C62}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{69E5F3C5-38A0-4FAF-A2AD-39D6799D74D3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A4E405B3-C0B7-446A-8E77-F0691ED95441}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B6A8199-6AF1-4334-9734-6F0EA016B72F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3B8A457C-2DBF-43BC-965D-CF42CA085361}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{497CC377-13FB-4F04-AF96-A21E7C29731A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0331C4A1-4B7B-43FB-9691-91CA605FA28A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{21ED59C1-6141-4B3E-8508-8698BB6BEAF6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CC6C7AA4-C51A-44B8-93BE-B00DDC84178D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{86BB4A07-1E9B-48D5-AE11-FC25A475D985}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75D9C34E-1DC3-4BB2-BE33-50443D8B87A3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6A0DB597-4992-4367-956F-420B390C78D8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C96212D4-CBDC-4BDB-B08B-67FA2ED4BF66}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8D3DBC17-12A4-450B-931F-24F3FD81EDCD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4EBA49B8-8483-4022-97C5-BC7597AC616A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB8F6F32-ED17-4E30-93E9-01CB60CDAAF4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{182CD1A7-FF52-4A9A-A2F6-EE4022573C73}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B6238F18-81E1-4C6B-8CEC-D18556E9AAF9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A02CB5C-D47A-4943-AB08-E70EF948EFF3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F35D5DA-7DA3-4B58-B609-F6F48864029E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{98A1A15A-2521-4E10-B1C0-86736A7E832F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0460E893-8A16-4B10-B4CB-FB82413CC2B9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D2F6DA6C-649F-4A24-81FB-BE0D2FB138DF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{734B1E31-085F-4CCB-BBC0-119527DC2FBA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10313,7 +10313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71372CDC-D3DB-473A-86A1-E25D94ECAC46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6B8E04-FD73-4856-B8E1-364EE412BB8A}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11579,18 +11579,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{717FD21B-9AD6-4A29-87AD-BF497D61410D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5CE1F740-D867-42CB-8E0B-FACC513BE1F5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E1571155-7140-49BC-8C99-C4698D8EA74B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E2539806-D99A-40B4-8C3C-393BC14DB2A2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{85B379C8-0F20-4039-A632-E9030785C641}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2F1969FC-3ADD-4B72-A8D5-30C865776ABA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{90F43100-0BA2-4682-B116-79FCEBBB9C28}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB1B2073-0B98-4141-9663-B10F12F85FEA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71BFD0C1-5418-4433-9254-D28C926C71D0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9BB2B5AE-3572-4ABA-B23B-265A33FC00C1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E8782B6C-540A-4E7B-A71F-611925DE52B4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{988CF36A-5AE9-47DB-9DE5-6C1D39D83CA0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{11ABF344-E6AA-43E2-BBC8-FFD43589D145}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B15647CC-98A3-4FB6-B7CB-FC481939DC27}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9BACF7C0-9AA9-4ECE-8498-F348FC96C32D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77DF146E-6561-4E5F-B8FC-99A2DF640526}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{80C76F92-52A7-4B2D-8402-5B903D6A37BC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F56AF538-1216-40ED-8E76-9C7B357F684D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F2822B1F-8474-42F3-8E69-DE9A3D75284F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CAB09267-37A4-43DF-AC29-E70AD1483E1B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{84BA8DDD-1FEB-4D02-BD42-85AD98DF44BF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{306083BE-CBD0-4CEF-B3AE-321182EB5743}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0567B7C-7C24-430C-B3B6-CC1D759DC10E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{55C0DDA1-8015-4BF7-8E9D-172DC083744A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11603,7 +11603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14956B33-9860-4CC5-AA79-8D6891CC1BA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ADD1E1-E88F-4DD0-ABC8-2E4EF07BAA8D}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12861,18 +12861,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2B4F958C-4E21-48CB-A98A-B975CE31BDE7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{90F94D8D-4B1C-4ED9-8951-6A4F4C5B202E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{76215A40-C4D6-49A4-8BB4-90C497EBD506}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C91AAC00-7D97-4EB0-AB81-8E3E1CC0AD55}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A326ECDE-3343-43C3-91DE-5C64EE265A39}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{56076B3A-918C-4E02-BACC-DA425FAAD47A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{717CDFC6-D9DE-4382-A99B-1FED48D9AAFF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BE14F24C-7115-4F12-A431-1C2BBEA1419B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2AA241EB-F6FB-4EA1-A20E-51A8DF88F73D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8E0873C2-C1BF-4920-B0C1-030668AEF833}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ED2FADE7-B5F1-4134-AF02-31BB484A98B9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{68E6BBBA-2101-490D-BD0A-EB28764454FE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A87ADC9-CC14-4695-8761-6BCFB857D06F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F4CB5380-828A-425A-AD64-19B43C5F0DC6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D3AD2DFF-0B24-4072-99ED-BAA8D7F1CDBE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{24ACFDD3-7C09-485D-AED0-1FDFF3951C76}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D7DC513-0B83-4417-B27C-536A0F198A5D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D2B108B3-4DC9-4370-994A-A5382DC4D188}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{69F4E8C5-01BD-4712-A9FA-F19DCE3D52A5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C22C3AC-702A-4783-BC87-98FDD99BD076}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{50FE940E-D05F-49E5-B6C6-99246DC95844}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1DCAF1F3-E531-4262-83E8-DBF0301D94B3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{345201C7-27B0-45F7-AC9D-51F1B46B9E7F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E0B9CE8B-056F-4224-9D0C-EF9D676B1813}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12885,7 +12885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2CB182-6608-4072-A8C6-E523B1CF5FA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFB6696-ED09-4279-8C83-289A664AF28D}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14143,18 +14143,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74787C2D-FA1A-4A97-8399-6A08870B751A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1DF275F8-5429-4A5D-9F34-6DCA8E3F81A3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{630C37B4-701D-4C54-ACF9-4EB1921BB383}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{10A6B127-AC5C-4E7A-B962-FD330BC89D30}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CEE77096-331F-4300-87A4-3A5EDF27C923}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F25C22AC-1F86-4B2B-A63D-FC4A787D944A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DFBD2FEE-A78D-415A-9454-9E536594D241}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C9085A3-47A5-4DC2-AF78-AC2046E30156}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5A9A818C-EA0B-427C-B086-ADA9C0325783}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4A08ABB6-B540-4F77-973E-FD8610BDB808}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1D7A8BD-E599-4AE9-BC4F-97DE79133C88}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{263A96CA-2243-47F9-A04E-01A104B2509D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8CF276F5-F01A-450C-A77A-6E2E65AC2C41}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D45E1B49-5EE4-492B-8ACF-BF6740BDEF9D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C7DEE949-42B2-4863-8677-6112A3EC5A04}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8712F6C7-00C0-454B-B2FA-67B2802DA23B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E2E0B7F1-95FC-449A-8A49-562313392AF0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D8EA89BA-F89B-4E9E-94F0-BF9339BFE92E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{779405E6-C3E1-4C00-A889-1F7B5D8B9A44}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5BEED6A9-C403-4A4D-8D65-8EB213D62E58}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{97D66471-7FA9-4934-8965-140C3F3E3244}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2C79AE3D-F026-44FD-8D0B-4EE92CE91310}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{87D72F63-A863-4AC3-B446-30B2B0182A1A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FD9012D5-A5B8-470E-A605-B4DDD9237A17}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14167,7 +14167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2587D55B-4E93-4C30-B4EF-1EE185134140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5093B89D-F894-4D6C-A1CA-9F9651E82F18}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15421,18 +15421,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD06ED16-69D6-4EDB-8FA8-65153AB46FF9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6F0DC680-7981-4237-A880-7191157ACE69}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{18768767-AA07-4FBA-9623-AD1373A39806}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A753FC4-7668-4D9F-8818-FF7F23551D1D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF567639-07EE-41D9-900D-2D1B77EBDCBF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{308DCAAE-D82D-4B16-8C59-036C66781DC0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8889BC0-59D1-4A0B-B166-CAF496AEE416}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7BA5615C-B210-4ADF-BC12-271097BBC5B0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1AE2D476-429A-47F9-A14E-E08978B2672F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2260B2BC-49DB-49B2-81A9-E8C2672E618A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F47CE6C-7611-401F-AC9F-541B100F1B23}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{490A2A20-23CE-44E0-AC4A-CD7FE2359DA2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D47E46F7-B267-4F78-A01D-2D3892F67268}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F114A8EF-AF72-40BE-B27F-1B8FB2E20A66}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BA3A004D-E6BD-44DB-BDB2-1323E7B564A1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1AD10679-9C3A-4965-BEFA-7F350621B8E2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3342BD44-6E29-4DDC-8599-B60D7A49F602}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5912F627-3F1B-4AAD-92A7-266EB28DAC27}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F0DF76C0-B53B-41C5-93F8-B85BE0F20677}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41B893A3-9012-4BCD-8D6C-6EBFE1DC2775}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{25BE4982-FC1E-456C-A9D9-B736EF802060}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1B9807F9-394C-4908-AE33-8652F07902F1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F537099F-90CB-4C8B-88C3-B087C3E06A94}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CF6EE9F7-6D3D-4A7E-A06F-1173BCB28447}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15445,7 +15445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5BFCD1-2FD2-4724-A08A-0C964BD5BF51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F1B0B5-6F4B-403B-AA59-F159FEA49563}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16699,18 +16699,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3271DC0B-4429-41FB-82AA-EF16779C080F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{384CDEB9-ABB5-48CD-A4D4-499AAD3D1669}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D6B245F2-DCB3-4E64-BA0B-0AF72CF716C4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{435FFBD3-3854-4608-9DB7-F23EABD5B3DA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E0683507-7EAC-40E0-897C-BA8B6CC3A83D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{095D5D13-ADA3-4021-BDE3-6FFFB29C1162}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E434A623-3C90-4A16-92D2-DB0F82E7B998}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48223E4A-91F8-453C-9E31-14E353345351}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1C1942A2-5FFB-4B96-9152-1A31A1397F32}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4F50B080-72F0-4C3A-9294-82745A2EBEFC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA41F74F-7195-46B6-A468-957F63847527}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BF2BFDA-B79B-4350-82A7-B7742A7ADF96}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9BB10369-784F-45A4-81B3-BCFF46984D5C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7DBF6C74-E96A-408D-86E7-B3DBAD4E1E18}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2D7827F7-1070-48A5-BD5D-4002F1D61F8D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4F362A8B-B179-42D1-84CF-634B0FE2A27F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{724A9272-38A6-4D79-A20E-EA5F487B97A6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D016C59E-B2F0-4B03-B2B9-079798BDB1F1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FEC679FD-E34E-4C8C-A35F-8E1F0DA92C97}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{46E39269-D83B-43FE-82E7-B487515791A3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E4239A6C-3429-46A8-AA9B-A5C5CA6B7A32}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{69DA3D21-7304-4142-AB9A-DB2FF4A86D07}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1570DF02-44D6-412A-967E-C12ACFE95CCF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA1898AB-A26B-4B48-947D-5069B7609AF0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
